--- a/materials/exp_lists/session_1_4.xlsx
+++ b/materials/exp_lists/session_1_4.xlsx
@@ -389,13 +389,13 @@
     <t>apokte = мельница?</t>
   </si>
   <si>
-    <t>reskane</t>
-  </si>
-  <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = аквариум?</t>
+    <t>reketre</t>
+  </si>
+  <si>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = аквариум?</t>
   </si>
   <si>
     <t>tinfetu</t>
